--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>16.7</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>14.1</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -10599,7 +10601,9 @@
       <c r="C116" t="n">
         <v>12.5</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10610,7 +10614,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.3</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="117">
@@ -15771,7 +15775,9 @@
       <c r="C116" t="n">
         <v>15.02</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>12.82</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15782,7 +15788,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.62</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="117">
@@ -20943,7 +20949,9 @@
       <c r="C116" t="n">
         <v>15.2</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>11.6</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20954,7 +20962,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.15</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="117">
@@ -26021,7 +26029,9 @@
       <c r="C116" t="n">
         <v>13.3</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>10.4</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -26032,7 +26042,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.8</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="117">
@@ -31193,7 +31203,9 @@
       <c r="C116" t="n">
         <v>13.2</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>10.4</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -31204,7 +31216,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.25</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="117">
@@ -36365,7 +36377,9 @@
       <c r="C116" t="n">
         <v>13.6</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>10.7</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36376,7 +36390,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.6</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="117">
@@ -41537,7 +41551,9 @@
       <c r="C116" t="n">
         <v>14.22</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>11.32</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41548,7 +41564,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.24</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="117">
@@ -46709,7 +46725,9 @@
       <c r="C116" t="n">
         <v>14.2175</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>11.3175</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46720,7 +46738,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.24</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>14.1</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="117">
@@ -10604,7 +10606,9 @@
       <c r="D116" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.1</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10614,7 +10618,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.27</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="117">
@@ -15778,7 +15782,9 @@
       <c r="D116" t="n">
         <v>12.82</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>11.62</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15788,7 +15794,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.02</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="117">
@@ -20952,7 +20958,9 @@
       <c r="D116" t="n">
         <v>11.6</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>10.2</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20962,7 +20970,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.97</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="117">
@@ -26032,7 +26040,9 @@
       <c r="D116" t="n">
         <v>10.4</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -26042,7 +26052,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.67</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="117">
@@ -31206,7 +31216,9 @@
       <c r="D116" t="n">
         <v>10.4</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -31216,7 +31228,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="117">
@@ -36380,7 +36392,9 @@
       <c r="D116" t="n">
         <v>10.7</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36390,7 +36404,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.63</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="117">
@@ -41554,7 +41568,9 @@
       <c r="D116" t="n">
         <v>11.32</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>10.52</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41564,7 +41580,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.27</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="117">
@@ -46728,7 +46744,9 @@
       <c r="D116" t="n">
         <v>11.3175</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>10.5175</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46738,7 +46756,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>9.1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>6.9</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.29</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="117">
@@ -10624,13 +10626,15 @@
       <c r="H116" t="n">
         <v>2.8</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.26</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="117">
@@ -15806,13 +15810,15 @@
       <c r="H116" t="n">
         <v>6.42</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>6.02</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.36</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="117">
@@ -20988,13 +20994,15 @@
       <c r="H116" t="n">
         <v>4.1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.07</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="117">
@@ -26076,13 +26084,15 @@
       <c r="H116" t="n">
         <v>4.5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.390000000000001</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="117">
@@ -31258,13 +31268,15 @@
       <c r="H116" t="n">
         <v>2.7</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>2.3</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.9</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="117">
@@ -36440,13 +36452,15 @@
       <c r="H116" t="n">
         <v>5.4</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.5</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="117">
@@ -41622,13 +41636,15 @@
       <c r="H116" t="n">
         <v>5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.11</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="117">
@@ -46804,13 +46820,15 @@
       <c r="H116" t="n">
         <v>5.0025</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3.94625</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.11</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>6.9</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.49</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="117">
@@ -10629,12 +10631,14 @@
       <c r="I116" t="n">
         <v>2.2</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="117">
@@ -15813,12 +15817,14 @@
       <c r="I116" t="n">
         <v>6.02</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9.220000000000001</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.69</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="117">
@@ -20997,12 +21003,14 @@
       <c r="I116" t="n">
         <v>3</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.6</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.19</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="117">
@@ -26087,12 +26095,14 @@
       <c r="I116" t="n">
         <v>3</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.8</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.59</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -31271,12 +31281,14 @@
       <c r="I116" t="n">
         <v>2.3</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.2</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.07</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="117">
@@ -36455,12 +36467,14 @@
       <c r="I116" t="n">
         <v>4.2</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.8</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.84</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -41639,12 +41653,14 @@
       <c r="I116" t="n">
         <v>3.95</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.79</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.34</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="117">
@@ -46823,12 +46839,14 @@
       <c r="I116" t="n">
         <v>3.94625</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.788749999999999</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.34</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>10.7</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.29</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="117">
@@ -10634,11 +10636,13 @@
       <c r="J116" t="n">
         <v>7.2</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.4</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.47</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="117">
@@ -15820,11 +15824,13 @@
       <c r="J116" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9.02</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.53</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="117">
@@ -21006,11 +21012,13 @@
       <c r="J116" t="n">
         <v>7.6</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8.4</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.01</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -26098,11 +26106,13 @@
       <c r="J116" t="n">
         <v>6.8</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.6</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.390000000000001</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -31284,11 +31294,13 @@
       <c r="J116" t="n">
         <v>6.2</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.6</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.87</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="117">
@@ -36470,11 +36482,13 @@
       <c r="J116" t="n">
         <v>6.8</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>7.1</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.609999999999999</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -41656,11 +41670,13 @@
       <c r="J116" t="n">
         <v>7.79</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.17</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -46842,11 +46858,13 @@
       <c r="J116" t="n">
         <v>7.788749999999999</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8.002500000000001</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.17</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>11.9</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.2</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.25</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="117">
@@ -10639,10 +10641,12 @@
       <c r="K116" t="n">
         <v>6.4</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.36</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="117">
@@ -15827,10 +15831,12 @@
       <c r="K116" t="n">
         <v>9.02</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>10.92</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.38</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="117">
@@ -21015,10 +21021,12 @@
       <c r="K116" t="n">
         <v>8.4</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>10.3</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.949999999999999</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="117">
@@ -26109,10 +26117,12 @@
       <c r="K116" t="n">
         <v>6.6</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9.1</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.210000000000001</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -31297,10 +31307,12 @@
       <c r="K116" t="n">
         <v>6.6</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>8.5</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.74</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="117">
@@ -36485,10 +36497,12 @@
       <c r="K116" t="n">
         <v>7.1</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>8.9</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.460000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="117">
@@ -41673,10 +41687,12 @@
       <c r="K116" t="n">
         <v>8</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.050000000000001</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -46861,10 +46877,12 @@
       <c r="K116" t="n">
         <v>8.002500000000001</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9.946250000000001</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.050000000000001</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,54 +5536,74 @@
       <c r="L116" t="n">
         <v>13.2</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.3</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.34</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>16.11</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>16.57</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>14.92</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.85</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>10.75</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.65</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.33</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.75</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>11.27</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>12.8</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>14.99</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.06</v>
       </c>
     </row>
@@ -5598,7 +5618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10644,54 +10664,74 @@
       <c r="L116" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>12.1</v>
+      </c>
       <c r="N116" t="n">
-        <v>7.48</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>11.28</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>11.16</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>7.12</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>5.01</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>3.08</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>2.75</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>3.51</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>4.92</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>6.5</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>7.88</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.28</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>6.9</v>
       </c>
     </row>
@@ -10706,7 +10746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15834,54 +15874,74 @@
       <c r="L116" t="n">
         <v>10.92</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>13.12</v>
+      </c>
       <c r="N116" t="n">
-        <v>10.43</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>13.58</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>13.84</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>12.61</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>10.92</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>7.27</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>6.58</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>6.92</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>9.1</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>10.27</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>12.34</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>10.07</v>
       </c>
     </row>
@@ -15896,7 +15956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21024,54 +21084,74 @@
       <c r="L116" t="n">
         <v>10.3</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>14.4</v>
+      </c>
       <c r="N116" t="n">
-        <v>9.07</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>13.74</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>13.73</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>11.73</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>9.01</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.33</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>3.54</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>2.56</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.04</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>6.13</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>8.25</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>9.91</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>12.47</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>8.449999999999999</v>
       </c>
     </row>
@@ -21086,7 +21166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26120,54 +26200,74 @@
       <c r="L116" t="n">
         <v>9.1</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>12.2</v>
+      </c>
       <c r="N116" t="n">
-        <v>8.289999999999999</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>12</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>12.14</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>10.57</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>8.56</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.51</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>4.2</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.13</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.22</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>5.9</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>7.53</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>8.81</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.88</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>7.87</v>
       </c>
     </row>
@@ -26182,7 +26282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31310,54 +31410,74 @@
       <c r="L116" t="n">
         <v>8.5</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="N116" t="n">
-        <v>7.81</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>11.74</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>11.71</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>9.92</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>7.31</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>4.82</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>2.15</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>1.59</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>2.89</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>4.69</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>6.48</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>8.09</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.46</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>6.82</v>
       </c>
     </row>
@@ -31372,7 +31492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36500,54 +36620,74 @@
       <c r="L116" t="n">
         <v>8.9</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>11.2</v>
+      </c>
       <c r="N116" t="n">
-        <v>8.5</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>11.56</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>11.47</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>10.2</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>8.19</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.05</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>3.85</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.02</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.21</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>5.71</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>7</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>8.51</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.45</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>7.52</v>
       </c>
     </row>
@@ -36562,7 +36702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41690,54 +41830,74 @@
       <c r="L116" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>13.03</v>
+      </c>
       <c r="N116" t="n">
-        <v>9.130000000000001</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>12.86</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>12.95</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>11.36</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.98</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>4.69</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.9</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.88</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>6.45</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>8.02</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>11.69</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
@@ -41752,7 +41912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46880,54 +47040,74 @@
       <c r="L116" t="n">
         <v>9.946250000000001</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>13.03125</v>
+      </c>
       <c r="N116" t="n">
-        <v>9.130000000000001</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>12.86</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>12.95</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>11.36</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.98</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>4.69</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.9</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.88</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>6.45</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>8.02</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>11.69</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>17.5</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -10675,7 +10679,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>12.6</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10687,7 +10693,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -15885,7 +15893,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>14.82</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15897,7 +15907,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>14.82</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -21095,7 +21107,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>14.7</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -21107,7 +21121,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -26211,7 +26227,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>12.4</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26223,7 +26241,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -31421,7 +31441,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>13</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31433,7 +31455,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -36631,7 +36655,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>12</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36643,7 +36669,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -41841,7 +41869,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>13.86</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41853,7 +41883,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>13.86</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -47051,7 +47083,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>13.86</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -47063,7 +47097,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>13.86</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>17.5</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>16</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="118">
@@ -10682,7 +10684,9 @@
       <c r="B117" t="n">
         <v>12.6</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>10.7</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10694,7 +10698,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.6</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="118">
@@ -15896,7 +15900,9 @@
       <c r="B117" t="n">
         <v>14.82</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>14.12</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15908,7 +15914,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.82</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="118">
@@ -21110,7 +21116,9 @@
       <c r="B117" t="n">
         <v>14.7</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>13.5</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -21122,7 +21130,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="118">
@@ -26230,7 +26238,9 @@
       <c r="B117" t="n">
         <v>12.4</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>10.4</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26242,7 +26252,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="118">
@@ -31444,7 +31454,9 @@
       <c r="B117" t="n">
         <v>13</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>11.2</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31456,7 +31468,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="118">
@@ -36658,7 +36670,9 @@
       <c r="B117" t="n">
         <v>12</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>11.6</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36670,7 +36684,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="118">
@@ -41872,7 +41886,9 @@
       <c r="B117" t="n">
         <v>13.86</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>12.5</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41884,7 +41900,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.86</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="118">
@@ -47086,7 +47102,9 @@
       <c r="B117" t="n">
         <v>13.86</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>12.5025</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -47098,7 +47116,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.86</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>16</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.75</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="118">
@@ -10687,7 +10689,9 @@
       <c r="C117" t="n">
         <v>10.7</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>7.899999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10698,7 +10702,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.65</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="118">
@@ -15903,7 +15907,9 @@
       <c r="C117" t="n">
         <v>14.12</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>11.82</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15914,7 +15920,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.47</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="118">
@@ -21119,7 +21125,9 @@
       <c r="C117" t="n">
         <v>13.5</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>10.7</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -21130,7 +21138,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.1</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="118">
@@ -26241,7 +26249,9 @@
       <c r="C117" t="n">
         <v>10.4</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26252,7 +26262,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.4</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="118">
@@ -31457,7 +31467,9 @@
       <c r="C117" t="n">
         <v>11.2</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31468,7 +31480,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.1</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="118">
@@ -36673,7 +36685,9 @@
       <c r="C117" t="n">
         <v>11.6</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36684,7 +36698,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.8</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="118">
@@ -41889,7 +41903,9 @@
       <c r="C117" t="n">
         <v>12.5</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>10.22</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41900,7 +41916,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.18</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="118">
@@ -47105,7 +47121,9 @@
       <c r="C117" t="n">
         <v>12.5025</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>10.2175</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -47116,7 +47134,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.18</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5402,7 +5402,7 @@
         <v>12</v>
       </c>
       <c r="L113" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="M113" t="n">
         <v>15</v>
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>14</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.5</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.83</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="118">
@@ -5606,7 +5608,7 @@
         <v>11.27</v>
       </c>
       <c r="L118" t="n">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="M118" t="n">
         <v>14.99</v>
@@ -10576,7 +10578,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="J114" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K114" t="n">
         <v>8.399999999999999</v>
@@ -10588,7 +10590,7 @@
         <v>13.3</v>
       </c>
       <c r="N114" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="115">
@@ -10692,7 +10694,9 @@
       <c r="D117" t="n">
         <v>7.899999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10702,7 +10706,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.4</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="118">
@@ -15867,7 +15871,7 @@
         <v>12.82</v>
       </c>
       <c r="E116" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="F116" t="n">
         <v>11.42</v>
@@ -15894,7 +15898,7 @@
         <v>13.12</v>
       </c>
       <c r="N116" t="n">
-        <v>10.65</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="117">
@@ -15910,7 +15914,9 @@
       <c r="D117" t="n">
         <v>11.82</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>11.12</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15920,7 +15926,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.59</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="118">
@@ -21128,7 +21134,9 @@
       <c r="D117" t="n">
         <v>10.7</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.9</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21138,7 +21146,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.97</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="118">
@@ -26252,7 +26260,9 @@
       <c r="D117" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.1</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26262,7 +26272,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.67</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="118">
@@ -31470,7 +31480,9 @@
       <c r="D117" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>7.7</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31480,7 +31492,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.97</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="118">
@@ -36688,7 +36700,9 @@
       <c r="D117" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36698,7 +36712,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.93</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="118">
@@ -41752,7 +41766,7 @@
         <v>9.1</v>
       </c>
       <c r="L113" t="n">
-        <v>10.65</v>
+        <v>10.63</v>
       </c>
       <c r="M113" t="n">
         <v>11.73</v>
@@ -41790,7 +41804,7 @@
         <v>5.9</v>
       </c>
       <c r="J114" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="K114" t="n">
         <v>9.5</v>
@@ -41863,7 +41877,7 @@
         <v>11.32</v>
       </c>
       <c r="E116" t="n">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
       <c r="F116" t="n">
         <v>9.449999999999999</v>
@@ -41906,7 +41920,9 @@
       <c r="D117" t="n">
         <v>10.22</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.470000000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41916,7 +41932,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.19</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="118">
@@ -41956,7 +41972,7 @@
         <v>8.02</v>
       </c>
       <c r="L118" t="n">
-        <v>9.470000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="M118" t="n">
         <v>11.69</v>
@@ -46970,7 +46986,7 @@
         <v>9.102499999999999</v>
       </c>
       <c r="L113" t="n">
-        <v>10.64625</v>
+        <v>10.63125</v>
       </c>
       <c r="M113" t="n">
         <v>11.73125</v>
@@ -47008,7 +47024,7 @@
         <v>5.9025</v>
       </c>
       <c r="J114" t="n">
-        <v>6.48875</v>
+        <v>6.47375</v>
       </c>
       <c r="K114" t="n">
         <v>9.5025</v>
@@ -47081,7 +47097,7 @@
         <v>11.3175</v>
       </c>
       <c r="E116" t="n">
-        <v>10.5175</v>
+        <v>10.5025</v>
       </c>
       <c r="F116" t="n">
         <v>9.446250000000001</v>
@@ -47124,7 +47140,9 @@
       <c r="D117" t="n">
         <v>10.2175</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.473750000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -47134,7 +47152,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.19</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>13.5</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.25</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="118">
@@ -10697,7 +10699,9 @@
       <c r="E117" t="n">
         <v>6.7</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10706,7 +10710,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.48</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="118">
@@ -15917,7 +15921,9 @@
       <c r="E117" t="n">
         <v>11.12</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>7.52</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15926,7 +15932,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.97</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="118">
@@ -21137,7 +21143,9 @@
       <c r="E117" t="n">
         <v>9.9</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>4.6</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21146,7 +21154,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.2</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="118">
@@ -26263,7 +26271,9 @@
       <c r="E117" t="n">
         <v>9.1</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.2</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26272,7 +26282,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.28</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="118">
@@ -31483,7 +31493,9 @@
       <c r="E117" t="n">
         <v>7.7</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>2.1</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31492,7 +31504,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.15</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -36703,7 +36715,9 @@
       <c r="E117" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36712,7 +36726,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.27</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -41923,7 +41937,9 @@
       <c r="E117" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.27</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41932,7 +41948,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.51</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="118">
@@ -47143,7 +47159,9 @@
       <c r="E117" t="n">
         <v>9.473750000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.27375</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -47152,7 +47170,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.51</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>10.1</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.04</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="118">
@@ -10702,7 +10704,9 @@
       <c r="F117" t="n">
         <v>3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>3.2</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10710,7 +10714,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.18</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="118">
@@ -15924,7 +15928,9 @@
       <c r="F117" t="n">
         <v>7.52</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>8.119999999999999</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15932,7 +15938,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.88</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="118">
@@ -21146,7 +21152,9 @@
       <c r="F117" t="n">
         <v>4.6</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.2</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21154,7 +21162,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.68</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="118">
@@ -26274,7 +26282,9 @@
       <c r="F117" t="n">
         <v>5.2</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.7</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26282,7 +26292,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.26</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="118">
@@ -31496,7 +31506,9 @@
       <c r="F117" t="n">
         <v>2.1</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>3.3</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31504,7 +31516,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.539999999999999</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="118">
@@ -36718,7 +36730,9 @@
       <c r="F117" t="n">
         <v>5.3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>6.2</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36726,7 +36740,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.279999999999999</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="118">
@@ -41940,7 +41954,9 @@
       <c r="F117" t="n">
         <v>5.27</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.97</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41948,7 +41964,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.26</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -47162,7 +47178,9 @@
       <c r="F117" t="n">
         <v>5.27375</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.97375</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -47170,7 +47188,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.27</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>10.1</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>7.9</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.38</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="118">
@@ -10707,14 +10709,16 @@
       <c r="G117" t="n">
         <v>3.2</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>3.1</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.35</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="118">
@@ -15931,14 +15935,16 @@
       <c r="G117" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>7.52</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.25</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="118">
@@ -21155,14 +21161,16 @@
       <c r="G117" t="n">
         <v>5.2</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>3.8</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.77</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="118">
@@ -26285,14 +26293,16 @@
       <c r="G117" t="n">
         <v>5.7</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>4.2</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.67</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -31509,14 +31519,16 @@
       <c r="G117" t="n">
         <v>3.3</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>2.8</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.67</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="118">
@@ -36733,14 +36745,16 @@
       <c r="G117" t="n">
         <v>6.2</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>5.5</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.77</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -41957,14 +41971,16 @@
       <c r="G117" t="n">
         <v>5.97</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>4.97</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.550000000000001</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -47181,14 +47197,16 @@
       <c r="G117" t="n">
         <v>5.97375</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>4.97375</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.550000000000001</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_rounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_unrounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMin_rounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMin_unrounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>7.9</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="118">
@@ -10712,13 +10713,15 @@
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.74</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="118">
@@ -15938,13 +15941,15 @@
       <c r="H117" t="n">
         <v>7.52</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.02</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.72</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="118">
@@ -21164,13 +21169,15 @@
       <c r="H117" t="n">
         <v>3.8</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.91</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -26296,13 +26303,15 @@
       <c r="H117" t="n">
         <v>4.2</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.029999999999999</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="118">
@@ -31522,13 +31531,15 @@
       <c r="H117" t="n">
         <v>2.8</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.97</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="118">
@@ -36748,13 +36759,15 @@
       <c r="H117" t="n">
         <v>5.5</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.300000000000001</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="118">
@@ -41974,13 +41987,15 @@
       <c r="H117" t="n">
         <v>4.97</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5.56</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.890000000000001</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="118">
@@ -47200,13 +47215,15 @@
       <c r="H117" t="n">
         <v>4.97375</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5.56</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.9</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>8.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.1</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="118">
@@ -10716,12 +10718,14 @@
       <c r="I117" t="n">
         <v>4.2</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.5</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.43</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="118">
@@ -15944,12 +15948,14 @@
       <c r="I117" t="n">
         <v>8.02</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.619999999999999</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.38</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="118">
@@ -21172,12 +21178,14 @@
       <c r="I117" t="n">
         <v>4.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.380000000000001</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="118">
@@ -26306,12 +26314,14 @@
       <c r="I117" t="n">
         <v>5.2</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.68</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="118">
@@ -31534,12 +31544,14 @@
       <c r="I117" t="n">
         <v>3.7</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.56</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="118">
@@ -36762,12 +36774,14 @@
       <c r="I117" t="n">
         <v>4.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.2</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.84</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="118">
@@ -41990,12 +42004,14 @@
       <c r="I117" t="n">
         <v>5.56</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.86</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.48</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -47218,12 +47234,14 @@
       <c r="I117" t="n">
         <v>5.56</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.859999999999999</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.48</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>10.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="118">
@@ -10721,11 +10723,13 @@
       <c r="J117" t="n">
         <v>5.5</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>7.3</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.32</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="118">
@@ -15951,11 +15955,13 @@
       <c r="J117" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>10.02</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.19</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="118">
@@ -21181,11 +21187,13 @@
       <c r="J117" t="n">
         <v>5.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9.1</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -26317,11 +26325,13 @@
       <c r="J117" t="n">
         <v>6</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.199999999999999</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.49</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="118">
@@ -31547,11 +31557,13 @@
       <c r="J117" t="n">
         <v>4.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>7.2</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.38</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="118">
@@ -36777,11 +36789,13 @@
       <c r="J117" t="n">
         <v>6.2</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="118">
@@ -42007,11 +42021,13 @@
       <c r="J117" t="n">
         <v>6.86</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.789999999999999</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.300000000000001</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="118">
@@ -47237,11 +47253,13 @@
       <c r="J117" t="n">
         <v>6.859999999999999</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.78875</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.300000000000001</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -42214,13 +42214,13 @@
         <v>13.07166666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>13.37166666666667</v>
+        <v>13.37166666666666</v>
       </c>
       <c r="D3" t="n">
         <v>11.65166666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>7.451666666666668</v>
+        <v>7.451666666666665</v>
       </c>
       <c r="F3" t="n">
         <v>7.611666666666667</v>
@@ -42229,7 +42229,7 @@
         <v>5.251666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>3.651666666666666</v>
+        <v>3.651666666666667</v>
       </c>
       <c r="I3" t="n">
         <v>4.451666666666667</v>
@@ -42258,7 +42258,7 @@
         <v>11.31166666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>11.35166666666666</v>
+        <v>11.35166666666667</v>
       </c>
       <c r="D4" t="n">
         <v>12.27166666666667</v>
@@ -42270,25 +42270,25 @@
         <v>6.411666666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>5.251666666666666</v>
+        <v>5.251666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>3.531666666666667</v>
+        <v>3.531666666666666</v>
       </c>
       <c r="I4" t="n">
-        <v>4.651666666666667</v>
+        <v>4.651666666666666</v>
       </c>
       <c r="J4" t="n">
         <v>5.711666666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>6.850000000000001</v>
+        <v>6.849999999999999</v>
       </c>
       <c r="L4" t="n">
         <v>7.851666666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>8.831666666666665</v>
+        <v>8.831666666666667</v>
       </c>
       <c r="N4" t="n">
         <v>7.95</v>
@@ -42302,19 +42302,19 @@
         <v>10.77166666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>9.652857142857144</v>
+        <v>9.652857142857142</v>
       </c>
       <c r="D5" t="n">
         <v>8.937142857142858</v>
       </c>
       <c r="E5" t="n">
-        <v>8.237142857142858</v>
+        <v>8.237142857142857</v>
       </c>
       <c r="F5" t="n">
         <v>5.069999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>3.87</v>
+        <v>3.870000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>4.191428571428571</v>
@@ -42329,7 +42329,7 @@
         <v>7.3225</v>
       </c>
       <c r="L5" t="n">
-        <v>8.338749999999999</v>
+        <v>8.338750000000001</v>
       </c>
       <c r="M5" t="n">
         <v>10.32375</v>
@@ -42352,22 +42352,22 @@
         <v>10.7825</v>
       </c>
       <c r="E6" t="n">
-        <v>6.6825</v>
+        <v>6.682499999999999</v>
       </c>
       <c r="F6" t="n">
         <v>3.5975</v>
       </c>
       <c r="G6" t="n">
-        <v>2.782500000000001</v>
+        <v>2.7825</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1825</v>
+        <v>4.182499999999999</v>
       </c>
       <c r="I6" t="n">
         <v>4.54</v>
       </c>
       <c r="J6" t="n">
-        <v>7.02625</v>
+        <v>7.026250000000001</v>
       </c>
       <c r="K6" t="n">
         <v>7.78125</v>
@@ -42376,7 +42376,7 @@
         <v>8.5825</v>
       </c>
       <c r="M6" t="n">
-        <v>9.768749999999999</v>
+        <v>9.768750000000001</v>
       </c>
       <c r="N6" t="n">
         <v>7.37</v>
@@ -42405,7 +42405,7 @@
         <v>3.26875</v>
       </c>
       <c r="H7" t="n">
-        <v>2.982499999999999</v>
+        <v>2.9825</v>
       </c>
       <c r="I7" t="n">
         <v>2.96875</v>
@@ -42414,10 +42414,10 @@
         <v>4.85375</v>
       </c>
       <c r="K7" t="n">
-        <v>6.61</v>
+        <v>6.609999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>8.053749999999999</v>
+        <v>8.053750000000001</v>
       </c>
       <c r="M7" t="n">
         <v>8.3825</v>
@@ -42437,10 +42437,10 @@
         <v>10.9975</v>
       </c>
       <c r="D8" t="n">
-        <v>9.71125</v>
+        <v>9.711250000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>6.84</v>
+        <v>6.840000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>5.9825</v>
@@ -42455,10 +42455,10 @@
         <v>4.35375</v>
       </c>
       <c r="J8" t="n">
-        <v>7.298749999999999</v>
+        <v>7.29875</v>
       </c>
       <c r="K8" t="n">
-        <v>8.723750000000001</v>
+        <v>8.723749999999999</v>
       </c>
       <c r="L8" t="n">
         <v>8.5825</v>
@@ -42490,7 +42490,7 @@
         <v>7.40625</v>
       </c>
       <c r="G9" t="n">
-        <v>6.191249999999999</v>
+        <v>6.19125</v>
       </c>
       <c r="H9" t="n">
         <v>4.59125</v>
@@ -42499,7 +42499,7 @@
         <v>4.70625</v>
       </c>
       <c r="J9" t="n">
-        <v>5.82</v>
+        <v>5.819999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>7.71875</v>
@@ -42531,10 +42531,10 @@
         <v>10.32</v>
       </c>
       <c r="F10" t="n">
-        <v>7.791250000000001</v>
+        <v>7.79125</v>
       </c>
       <c r="G10" t="n">
-        <v>4.991250000000001</v>
+        <v>4.99125</v>
       </c>
       <c r="H10" t="n">
         <v>5.59125</v>
@@ -42546,10 +42546,10 @@
         <v>7.492500000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>8.147499999999999</v>
+        <v>8.147500000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>9.762500000000001</v>
+        <v>9.762499999999999</v>
       </c>
       <c r="M10" t="n">
         <v>10.23375</v>
@@ -42613,10 +42613,10 @@
         <v>12.2775</v>
       </c>
       <c r="D12" t="n">
-        <v>9.54875</v>
+        <v>9.548750000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>7.077499999999999</v>
+        <v>7.077500000000001</v>
       </c>
       <c r="F12" t="n">
         <v>4.84875</v>
@@ -42631,13 +42631,13 @@
         <v>4.43375</v>
       </c>
       <c r="J12" t="n">
-        <v>4.348750000000001</v>
+        <v>4.34875</v>
       </c>
       <c r="K12" t="n">
         <v>6.87625</v>
       </c>
       <c r="L12" t="n">
-        <v>7.220000000000001</v>
+        <v>7.22</v>
       </c>
       <c r="M12" t="n">
         <v>8.79125</v>
@@ -42678,7 +42678,7 @@
         <v>5.1075</v>
       </c>
       <c r="K13" t="n">
-        <v>7.447500000000002</v>
+        <v>7.4475</v>
       </c>
       <c r="L13" t="n">
         <v>7.64875</v>
@@ -42710,19 +42710,19 @@
         <v>6.09625</v>
       </c>
       <c r="G14" t="n">
-        <v>4.967499999999999</v>
+        <v>4.9675</v>
       </c>
       <c r="H14" t="n">
         <v>3.71</v>
       </c>
       <c r="I14" t="n">
-        <v>4.08125</v>
+        <v>4.081250000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>6.097499999999999</v>
+        <v>6.0975</v>
       </c>
       <c r="K14" t="n">
-        <v>8.38125</v>
+        <v>8.381250000000001</v>
       </c>
       <c r="L14" t="n">
         <v>8.42375</v>
@@ -42748,13 +42748,13 @@
         <v>9.53875</v>
       </c>
       <c r="E15" t="n">
-        <v>8.42375</v>
+        <v>8.423750000000002</v>
       </c>
       <c r="F15" t="n">
-        <v>6.352500000000001</v>
+        <v>6.3525</v>
       </c>
       <c r="G15" t="n">
-        <v>3.010000000000001</v>
+        <v>3.01</v>
       </c>
       <c r="H15" t="n">
         <v>2.69625</v>
@@ -42766,7 +42766,7 @@
         <v>5.2675</v>
       </c>
       <c r="K15" t="n">
-        <v>8.6225</v>
+        <v>8.622499999999999</v>
       </c>
       <c r="L15" t="n">
         <v>8.5525</v>
@@ -42789,10 +42789,10 @@
         <v>10.23875</v>
       </c>
       <c r="D16" t="n">
-        <v>9.338750000000003</v>
+        <v>9.338750000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>6.067500000000001</v>
+        <v>6.0675</v>
       </c>
       <c r="F16" t="n">
         <v>6.78125</v>
@@ -42880,13 +42880,13 @@
         <v>9.16375</v>
       </c>
       <c r="E18" t="n">
-        <v>7.6925</v>
+        <v>7.692500000000001</v>
       </c>
       <c r="F18" t="n">
         <v>5.57875</v>
       </c>
       <c r="G18" t="n">
-        <v>3.392500000000001</v>
+        <v>3.3925</v>
       </c>
       <c r="H18" t="n">
         <v>4.0075</v>
@@ -42898,10 +42898,10 @@
         <v>5.078749999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>7.520000000000001</v>
+        <v>7.52</v>
       </c>
       <c r="L18" t="n">
-        <v>7.907499999999999</v>
+        <v>7.9075</v>
       </c>
       <c r="M18" t="n">
         <v>10.3925</v>
@@ -42921,16 +42921,16 @@
         <v>10.28625</v>
       </c>
       <c r="D19" t="n">
-        <v>9.342500000000001</v>
+        <v>9.342499999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>9.713750000000001</v>
+        <v>9.713749999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>6.313750000000002</v>
+        <v>6.313750000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>3.186250000000001</v>
+        <v>3.18625</v>
       </c>
       <c r="H19" t="n">
         <v>3.3425</v>
@@ -42945,10 +42945,10 @@
         <v>7.92875</v>
       </c>
       <c r="L19" t="n">
-        <v>7.857499999999999</v>
+        <v>7.8575</v>
       </c>
       <c r="M19" t="n">
-        <v>9.942499999999999</v>
+        <v>9.942500000000001</v>
       </c>
       <c r="N19" t="n">
         <v>7.42</v>
@@ -42989,7 +42989,7 @@
         <v>7.09875</v>
       </c>
       <c r="L20" t="n">
-        <v>7.97125</v>
+        <v>7.971250000000001</v>
       </c>
       <c r="M20" t="n">
         <v>9.657500000000001</v>
@@ -43021,7 +43021,7 @@
         <v>4.55125</v>
       </c>
       <c r="H21" t="n">
-        <v>4.579999999999999</v>
+        <v>4.58</v>
       </c>
       <c r="I21" t="n">
         <v>4.3375</v>
@@ -43030,7 +43030,7 @@
         <v>5.59625</v>
       </c>
       <c r="K21" t="n">
-        <v>7.936249999999999</v>
+        <v>7.93625</v>
       </c>
       <c r="L21" t="n">
         <v>8.46875</v>
@@ -43100,7 +43100,7 @@
         <v>9.482500000000002</v>
       </c>
       <c r="E23" t="n">
-        <v>8.268749999999999</v>
+        <v>8.268750000000001</v>
       </c>
       <c r="F23" t="n">
         <v>4.96875</v>
@@ -43124,7 +43124,7 @@
         <v>7.25375</v>
       </c>
       <c r="M23" t="n">
-        <v>9.782500000000001</v>
+        <v>9.782499999999999</v>
       </c>
       <c r="N23" t="n">
         <v>6.78</v>
@@ -43138,7 +43138,7 @@
         <v>10.85375</v>
       </c>
       <c r="C24" t="n">
-        <v>9.768749999999999</v>
+        <v>9.768750000000001</v>
       </c>
       <c r="D24" t="n">
         <v>9.782500000000001</v>
@@ -43147,7 +43147,7 @@
         <v>8.311250000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>5.239999999999999</v>
+        <v>5.24</v>
       </c>
       <c r="G24" t="n">
         <v>3.0825</v>
@@ -43188,7 +43188,7 @@
         <v>10.4925</v>
       </c>
       <c r="E25" t="n">
-        <v>9.092499999999999</v>
+        <v>9.092500000000001</v>
       </c>
       <c r="F25" t="n">
         <v>5.33625</v>
@@ -43209,7 +43209,7 @@
         <v>8.36375</v>
       </c>
       <c r="L25" t="n">
-        <v>8.807499999999999</v>
+        <v>8.807500000000001</v>
       </c>
       <c r="M25" t="n">
         <v>10.25</v>
@@ -43253,7 +43253,7 @@
         <v>6.94875</v>
       </c>
       <c r="L26" t="n">
-        <v>7.978750000000002</v>
+        <v>7.97875</v>
       </c>
       <c r="M26" t="n">
         <v>10.9075</v>
@@ -43279,7 +43279,7 @@
         <v>9.1075</v>
       </c>
       <c r="F27" t="n">
-        <v>5.3075</v>
+        <v>5.307499999999999</v>
       </c>
       <c r="G27" t="n">
         <v>4.45</v>
@@ -43291,13 +43291,13 @@
         <v>4.563750000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>5.907499999999999</v>
+        <v>5.9075</v>
       </c>
       <c r="K27" t="n">
-        <v>7.3625</v>
+        <v>7.362500000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>9.978750000000002</v>
+        <v>9.97875</v>
       </c>
       <c r="M27" t="n">
         <v>13.2925</v>
@@ -43320,7 +43320,7 @@
         <v>12.02125</v>
       </c>
       <c r="E28" t="n">
-        <v>9.77875</v>
+        <v>9.778749999999999</v>
       </c>
       <c r="F28" t="n">
         <v>5.62125</v>
@@ -43329,7 +43329,7 @@
         <v>4.03625</v>
       </c>
       <c r="H28" t="n">
-        <v>3.050000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
         <v>4.05</v>
@@ -43338,7 +43338,7 @@
         <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>7.991250000000001</v>
+        <v>7.99125</v>
       </c>
       <c r="L28" t="n">
         <v>7.45</v>
@@ -43364,7 +43364,7 @@
         <v>8.921250000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>9.436249999999999</v>
+        <v>9.436250000000001</v>
       </c>
       <c r="F29" t="n">
         <v>4.63625</v>
@@ -43379,7 +43379,7 @@
         <v>5.12125</v>
       </c>
       <c r="J29" t="n">
-        <v>5.092500000000001</v>
+        <v>5.0925</v>
       </c>
       <c r="K29" t="n">
         <v>8.40625</v>
@@ -43388,7 +43388,7 @@
         <v>9.192499999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>9.950000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="N29" t="n">
         <v>7.61</v>
@@ -43414,7 +43414,7 @@
         <v>6.27875</v>
       </c>
       <c r="G30" t="n">
-        <v>2.963750000000001</v>
+        <v>2.96375</v>
       </c>
       <c r="H30" t="n">
         <v>2.65</v>
@@ -43423,7 +43423,7 @@
         <v>4.3925</v>
       </c>
       <c r="J30" t="n">
-        <v>5.850000000000001</v>
+        <v>5.85</v>
       </c>
       <c r="K30" t="n">
         <v>6.063750000000001</v>
@@ -43467,7 +43467,7 @@
         <v>3.95</v>
       </c>
       <c r="J31" t="n">
-        <v>5.850000000000001</v>
+        <v>5.85</v>
       </c>
       <c r="K31" t="n">
         <v>7.563750000000001</v>
@@ -43476,7 +43476,7 @@
         <v>9.7925</v>
       </c>
       <c r="M31" t="n">
-        <v>9.549999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="N31" t="n">
         <v>8.550000000000001</v>
@@ -43496,13 +43496,13 @@
         <v>11.05</v>
       </c>
       <c r="E32" t="n">
-        <v>8.47875</v>
+        <v>8.478750000000002</v>
       </c>
       <c r="F32" t="n">
         <v>6.22125</v>
       </c>
       <c r="G32" t="n">
-        <v>5.263749999999999</v>
+        <v>5.26375</v>
       </c>
       <c r="H32" t="n">
         <v>2.07875</v>
@@ -43602,7 +43602,7 @@
         <v>5.380000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>6.563750000000001</v>
+        <v>6.56375</v>
       </c>
       <c r="L34" t="n">
         <v>8.6075</v>
@@ -43652,7 +43652,7 @@
         <v>9.05125</v>
       </c>
       <c r="M35" t="n">
-        <v>9.431249999999999</v>
+        <v>9.43125</v>
       </c>
       <c r="N35" t="n">
         <v>7.65</v>
@@ -43675,7 +43675,7 @@
         <v>8.102499999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>4.473749999999999</v>
+        <v>4.47375</v>
       </c>
       <c r="G36" t="n">
         <v>4.47375</v>
@@ -43690,7 +43690,7 @@
         <v>5.57625</v>
       </c>
       <c r="K36" t="n">
-        <v>7.031250000000001</v>
+        <v>7.03125</v>
       </c>
       <c r="L36" t="n">
         <v>9.188750000000001</v>
@@ -43719,7 +43719,7 @@
         <v>9.713750000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>5.313750000000001</v>
+        <v>5.31375</v>
       </c>
       <c r="G37" t="n">
         <v>3.2</v>
@@ -43728,7 +43728,7 @@
         <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>3.786249999999999</v>
+        <v>3.78625</v>
       </c>
       <c r="J37" t="n">
         <v>5.0875</v>
@@ -43740,7 +43740,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>9.242499999999998</v>
+        <v>9.2425</v>
       </c>
       <c r="N37" t="n">
         <v>7.49</v>
@@ -43757,13 +43757,13 @@
         <v>12.28375</v>
       </c>
       <c r="D38" t="n">
-        <v>9.34125</v>
+        <v>9.341249999999999</v>
       </c>
       <c r="E38" t="n">
         <v>8.1275</v>
       </c>
       <c r="F38" t="n">
-        <v>5.14125</v>
+        <v>5.141249999999999</v>
       </c>
       <c r="G38" t="n">
         <v>2.79875</v>
@@ -43778,7 +43778,7 @@
         <v>5.5</v>
       </c>
       <c r="K38" t="n">
-        <v>5.5125</v>
+        <v>5.512499999999999</v>
       </c>
       <c r="L38" t="n">
         <v>8.79875</v>
@@ -43804,16 +43804,16 @@
         <v>11.0125</v>
       </c>
       <c r="E39" t="n">
-        <v>8.498750000000001</v>
+        <v>8.498749999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>6.898750000000001</v>
+        <v>6.89875</v>
       </c>
       <c r="G39" t="n">
         <v>4.45625</v>
       </c>
       <c r="H39" t="n">
-        <v>4.227499999999999</v>
+        <v>4.2275</v>
       </c>
       <c r="I39" t="n">
         <v>4.18375</v>
@@ -43822,13 +43822,13 @@
         <v>5.75625</v>
       </c>
       <c r="K39" t="n">
-        <v>6.340000000000002</v>
+        <v>6.34</v>
       </c>
       <c r="L39" t="n">
         <v>5.8125</v>
       </c>
       <c r="M39" t="n">
-        <v>9.069999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="N39" t="n">
         <v>7.31</v>
@@ -43854,7 +43854,7 @@
         <v>5.77</v>
       </c>
       <c r="G40" t="n">
-        <v>4.182499999999999</v>
+        <v>4.1825</v>
       </c>
       <c r="H40" t="n">
         <v>2.91125</v>
@@ -43863,7 +43863,7 @@
         <v>4.42625</v>
       </c>
       <c r="J40" t="n">
-        <v>5.54</v>
+        <v>5.539999999999999</v>
       </c>
       <c r="K40" t="n">
         <v>7.71</v>
@@ -43895,7 +43895,7 @@
         <v>8.553749999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>6.539999999999999</v>
+        <v>6.54</v>
       </c>
       <c r="G41" t="n">
         <v>3.54</v>
@@ -43954,13 +43954,13 @@
         <v>4.94</v>
       </c>
       <c r="K42" t="n">
-        <v>8.481250000000001</v>
+        <v>8.481249999999999</v>
       </c>
       <c r="L42" t="n">
         <v>8.34</v>
       </c>
       <c r="M42" t="n">
-        <v>9.85375</v>
+        <v>9.853750000000002</v>
       </c>
       <c r="N42" t="n">
         <v>7.53</v>
@@ -43983,7 +43983,7 @@
         <v>7.782500000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>8.053750000000001</v>
+        <v>8.053749999999999</v>
       </c>
       <c r="G43" t="n">
         <v>3.6975</v>
@@ -43995,10 +43995,10 @@
         <v>2.95375</v>
       </c>
       <c r="J43" t="n">
-        <v>5.81125</v>
+        <v>5.811249999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>7.7675</v>
+        <v>7.767499999999999</v>
       </c>
       <c r="L43" t="n">
         <v>9.0825</v>
@@ -44039,7 +44039,7 @@
         <v>3.0625</v>
       </c>
       <c r="J44" t="n">
-        <v>5.533750000000001</v>
+        <v>5.53375</v>
       </c>
       <c r="K44" t="n">
         <v>7.7775</v>
@@ -44065,13 +44065,13 @@
         <v>12.54875</v>
       </c>
       <c r="D45" t="n">
-        <v>9.977500000000001</v>
+        <v>9.977499999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>8.619999999999999</v>
+        <v>8.620000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>6.133750000000001</v>
+        <v>6.133749999999999</v>
       </c>
       <c r="G45" t="n">
         <v>4.077500000000001</v>
@@ -44089,7 +44089,7 @@
         <v>7.99125</v>
       </c>
       <c r="L45" t="n">
-        <v>9.506250000000001</v>
+        <v>9.50625</v>
       </c>
       <c r="M45" t="n">
         <v>11.5625</v>
@@ -44112,13 +44112,13 @@
         <v>10.42</v>
       </c>
       <c r="E46" t="n">
-        <v>8.219999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F46" t="n">
         <v>6.40625</v>
       </c>
       <c r="G46" t="n">
-        <v>4.14875</v>
+        <v>4.148750000000001</v>
       </c>
       <c r="H46" t="n">
         <v>3.1625</v>
@@ -44130,7 +44130,7 @@
         <v>5.733750000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>7.106250000000001</v>
+        <v>7.106249999999999</v>
       </c>
       <c r="L46" t="n">
         <v>10.09125</v>
@@ -44156,7 +44156,7 @@
         <v>12.19125</v>
       </c>
       <c r="E47" t="n">
-        <v>7.506250000000001</v>
+        <v>7.50625</v>
       </c>
       <c r="F47" t="n">
         <v>6.79125</v>
@@ -44168,13 +44168,13 @@
         <v>3.14875</v>
       </c>
       <c r="I47" t="n">
-        <v>3.80625</v>
+        <v>3.806249999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>4.82125</v>
+        <v>4.821250000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>6.248749999999999</v>
+        <v>6.24875</v>
       </c>
       <c r="L47" t="n">
         <v>10.72</v>
@@ -44203,7 +44203,7 @@
         <v>9.64875</v>
       </c>
       <c r="F48" t="n">
-        <v>7.220000000000001</v>
+        <v>7.22</v>
       </c>
       <c r="G48" t="n">
         <v>3.79125</v>
@@ -44215,7 +44215,7 @@
         <v>4.99125</v>
       </c>
       <c r="J48" t="n">
-        <v>6.048749999999999</v>
+        <v>6.04875</v>
       </c>
       <c r="K48" t="n">
         <v>8.362500000000001</v>
@@ -44250,7 +44250,7 @@
         <v>7.0625</v>
       </c>
       <c r="G49" t="n">
-        <v>4.991250000000001</v>
+        <v>4.99125</v>
       </c>
       <c r="H49" t="n">
         <v>3.6775</v>
@@ -44259,10 +44259,10 @@
         <v>3.80625</v>
       </c>
       <c r="J49" t="n">
-        <v>5.748749999999999</v>
+        <v>5.74875</v>
       </c>
       <c r="K49" t="n">
-        <v>8.247499999999999</v>
+        <v>8.2475</v>
       </c>
       <c r="L49" t="n">
         <v>9.477499999999999</v>
@@ -44306,13 +44306,13 @@
         <v>5.733750000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>6.706250000000001</v>
+        <v>6.70625</v>
       </c>
       <c r="L50" t="n">
         <v>9.02</v>
       </c>
       <c r="M50" t="n">
-        <v>9.6625</v>
+        <v>9.662500000000001</v>
       </c>
       <c r="N50" t="n">
         <v>8.08</v>
@@ -44338,16 +44338,16 @@
         <v>6.2775</v>
       </c>
       <c r="G51" t="n">
-        <v>3.34875</v>
+        <v>3.348749999999999</v>
       </c>
       <c r="H51" t="n">
         <v>2.3775</v>
       </c>
       <c r="I51" t="n">
-        <v>4.2625</v>
+        <v>4.262499999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>4.536250000000001</v>
+        <v>4.53625</v>
       </c>
       <c r="K51" t="n">
         <v>8.890000000000001</v>
@@ -44420,7 +44420,7 @@
         <v>10.40625</v>
       </c>
       <c r="E53" t="n">
-        <v>8.191249999999998</v>
+        <v>8.19125</v>
       </c>
       <c r="F53" t="n">
         <v>6.733750000000001</v>
@@ -44435,10 +44435,10 @@
         <v>3.72</v>
       </c>
       <c r="J53" t="n">
-        <v>6.306250000000001</v>
+        <v>6.30625</v>
       </c>
       <c r="K53" t="n">
-        <v>8.506250000000001</v>
+        <v>8.50625</v>
       </c>
       <c r="L53" t="n">
         <v>8.93</v>
@@ -44479,13 +44479,13 @@
         <v>3.7725</v>
       </c>
       <c r="J54" t="n">
-        <v>5.643750000000001</v>
+        <v>5.64375</v>
       </c>
       <c r="K54" t="n">
         <v>8.91625</v>
       </c>
       <c r="L54" t="n">
-        <v>9.41625</v>
+        <v>9.416249999999998</v>
       </c>
       <c r="M54" t="n">
         <v>11.80125</v>
@@ -44517,7 +44517,7 @@
         <v>5.30125</v>
       </c>
       <c r="H55" t="n">
-        <v>4.35875</v>
+        <v>4.358750000000001</v>
       </c>
       <c r="I55" t="n">
         <v>4.20125</v>
@@ -44529,7 +44529,7 @@
         <v>9.24375</v>
       </c>
       <c r="L55" t="n">
-        <v>9.20125</v>
+        <v>9.201249999999998</v>
       </c>
       <c r="M55" t="n">
         <v>10.74375</v>
@@ -44555,7 +44555,7 @@
         <v>7.3875</v>
       </c>
       <c r="F56" t="n">
-        <v>5.801249999999999</v>
+        <v>5.80125</v>
       </c>
       <c r="G56" t="n">
         <v>3.63</v>
@@ -44570,7 +44570,7 @@
         <v>6.16</v>
       </c>
       <c r="K56" t="n">
-        <v>7.787500000000001</v>
+        <v>7.7875</v>
       </c>
       <c r="L56" t="n">
         <v>7.84375</v>
@@ -44611,13 +44611,13 @@
         <v>3.6775</v>
       </c>
       <c r="J57" t="n">
-        <v>5.20625</v>
+        <v>5.206250000000001</v>
       </c>
       <c r="K57" t="n">
         <v>7.17625</v>
       </c>
       <c r="L57" t="n">
-        <v>8.648750000000001</v>
+        <v>8.64875</v>
       </c>
       <c r="M57" t="n">
         <v>11.50625</v>
@@ -44640,7 +44640,7 @@
         <v>11.1775</v>
       </c>
       <c r="E58" t="n">
-        <v>8.348750000000001</v>
+        <v>8.348749999999999</v>
       </c>
       <c r="F58" t="n">
         <v>5.6625</v>
@@ -44655,7 +44655,7 @@
         <v>3.94875</v>
       </c>
       <c r="J58" t="n">
-        <v>5.577499999999999</v>
+        <v>5.5775</v>
       </c>
       <c r="K58" t="n">
         <v>6.22</v>
@@ -44699,7 +44699,7 @@
         <v>3.233750000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>5.82125</v>
+        <v>5.821250000000001</v>
       </c>
       <c r="K59" t="n">
         <v>7.02</v>
@@ -44731,7 +44731,7 @@
         <v>8.92</v>
       </c>
       <c r="F60" t="n">
-        <v>6.39125</v>
+        <v>6.391249999999999</v>
       </c>
       <c r="G60" t="n">
         <v>2.7775</v>
@@ -44746,10 +44746,10 @@
         <v>5.078749999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>7.718749999999999</v>
+        <v>7.71875</v>
       </c>
       <c r="L60" t="n">
-        <v>8.64625</v>
+        <v>8.646249999999998</v>
       </c>
       <c r="M60" t="n">
         <v>11.3025</v>
@@ -44784,13 +44784,13 @@
         <v>2.67375</v>
       </c>
       <c r="I61" t="n">
-        <v>4.688749999999999</v>
+        <v>4.68875</v>
       </c>
       <c r="J61" t="n">
         <v>5.1025</v>
       </c>
       <c r="K61" t="n">
-        <v>6.8175</v>
+        <v>6.817500000000001</v>
       </c>
       <c r="L61" t="n">
         <v>8.13125</v>
@@ -44828,7 +44828,7 @@
         <v>2.36</v>
       </c>
       <c r="I62" t="n">
-        <v>4.33125</v>
+        <v>4.331250000000001</v>
       </c>
       <c r="J62" t="n">
         <v>7.56</v>
@@ -44860,7 +44860,7 @@
         <v>12.48875</v>
       </c>
       <c r="E63" t="n">
-        <v>9.302499999999998</v>
+        <v>9.3025</v>
       </c>
       <c r="F63" t="n">
         <v>5.3175</v>
@@ -44872,10 +44872,10 @@
         <v>4.38875</v>
       </c>
       <c r="I63" t="n">
-        <v>5.061250000000001</v>
+        <v>5.061249999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>6.47375</v>
+        <v>6.473750000000001</v>
       </c>
       <c r="K63" t="n">
         <v>8.0875</v>
@@ -44907,7 +44907,7 @@
         <v>9.202500000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>7.8175</v>
+        <v>7.817500000000001</v>
       </c>
       <c r="G64" t="n">
         <v>6.359999999999999</v>
@@ -44919,7 +44919,7 @@
         <v>5.34625</v>
       </c>
       <c r="J64" t="n">
-        <v>5.989999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="K64" t="n">
         <v>7.6175</v>
@@ -44951,7 +44951,7 @@
         <v>9.17375</v>
       </c>
       <c r="F65" t="n">
-        <v>5.717499999999999</v>
+        <v>5.7175</v>
       </c>
       <c r="G65" t="n">
         <v>2.26</v>
@@ -45039,7 +45039,7 @@
         <v>10.1175</v>
       </c>
       <c r="F67" t="n">
-        <v>6.36</v>
+        <v>6.359999999999999</v>
       </c>
       <c r="G67" t="n">
         <v>4.07375</v>
@@ -45054,7 +45054,7 @@
         <v>7.16</v>
       </c>
       <c r="K67" t="n">
-        <v>7.772500000000001</v>
+        <v>7.7725</v>
       </c>
       <c r="L67" t="n">
         <v>10.08875</v>
@@ -45080,7 +45080,7 @@
         <v>12.68875</v>
       </c>
       <c r="E68" t="n">
-        <v>9.517499999999998</v>
+        <v>9.5175</v>
       </c>
       <c r="F68" t="n">
         <v>7.0175</v>
@@ -45092,10 +45092,10 @@
         <v>2.77375</v>
       </c>
       <c r="I68" t="n">
-        <v>5.131250000000001</v>
+        <v>5.13125</v>
       </c>
       <c r="J68" t="n">
-        <v>5.731250000000001</v>
+        <v>5.73125</v>
       </c>
       <c r="K68" t="n">
         <v>7.743749999999999</v>
@@ -45118,7 +45118,7 @@
         <v>12.38</v>
       </c>
       <c r="C69" t="n">
-        <v>9.708750000000002</v>
+        <v>9.708749999999998</v>
       </c>
       <c r="D69" t="n">
         <v>11.18</v>
@@ -45142,10 +45142,10 @@
         <v>5.52</v>
       </c>
       <c r="K69" t="n">
-        <v>6.777499999999999</v>
+        <v>6.7775</v>
       </c>
       <c r="L69" t="n">
-        <v>7.933749999999998</v>
+        <v>7.933749999999999</v>
       </c>
       <c r="M69" t="n">
         <v>11.49125</v>
@@ -45180,13 +45180,13 @@
         <v>4.32</v>
       </c>
       <c r="I70" t="n">
-        <v>4.548749999999999</v>
+        <v>4.54875</v>
       </c>
       <c r="J70" t="n">
-        <v>4.307500000000001</v>
+        <v>4.3075</v>
       </c>
       <c r="K70" t="n">
-        <v>7.133750000000001</v>
+        <v>7.13375</v>
       </c>
       <c r="L70" t="n">
         <v>8.3775</v>
@@ -45215,7 +45215,7 @@
         <v>11.9775</v>
       </c>
       <c r="F71" t="n">
-        <v>6.7625</v>
+        <v>6.762499999999999</v>
       </c>
       <c r="G71" t="n">
         <v>4.0775</v>
@@ -45224,7 +45224,7 @@
         <v>4.59125</v>
       </c>
       <c r="I71" t="n">
-        <v>4.606249999999999</v>
+        <v>4.60625</v>
       </c>
       <c r="J71" t="n">
         <v>6.42</v>
@@ -45259,16 +45259,16 @@
         <v>8.69125</v>
       </c>
       <c r="F72" t="n">
-        <v>6.133750000000001</v>
+        <v>6.13375</v>
       </c>
       <c r="G72" t="n">
-        <v>4.691249999999999</v>
+        <v>4.69125</v>
       </c>
       <c r="H72" t="n">
         <v>4.0625</v>
       </c>
       <c r="I72" t="n">
-        <v>4.148750000000001</v>
+        <v>4.14875</v>
       </c>
       <c r="J72" t="n">
         <v>6.6075</v>
@@ -45306,19 +45306,19 @@
         <v>6.577500000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>4.091249999999999</v>
+        <v>4.09125</v>
       </c>
       <c r="H73" t="n">
         <v>3.577500000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>4.191249999999999</v>
+        <v>4.19125</v>
       </c>
       <c r="J73" t="n">
         <v>6.66375</v>
       </c>
       <c r="K73" t="n">
-        <v>8.648750000000001</v>
+        <v>8.64875</v>
       </c>
       <c r="L73" t="n">
         <v>8.40625</v>
@@ -45347,10 +45347,10 @@
         <v>10.2625</v>
       </c>
       <c r="F74" t="n">
-        <v>5.7625</v>
+        <v>5.762499999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>5.719999999999999</v>
+        <v>5.72</v>
       </c>
       <c r="H74" t="n">
         <v>3.89125</v>
@@ -45362,7 +45362,7 @@
         <v>5.76375</v>
       </c>
       <c r="K74" t="n">
-        <v>7.933750000000001</v>
+        <v>7.93375</v>
       </c>
       <c r="L74" t="n">
         <v>10.12</v>
@@ -45388,10 +45388,10 @@
         <v>11.20625</v>
       </c>
       <c r="E75" t="n">
-        <v>7.548749999999999</v>
+        <v>7.54875</v>
       </c>
       <c r="F75" t="n">
-        <v>6.748749999999999</v>
+        <v>6.748750000000001</v>
       </c>
       <c r="G75" t="n">
         <v>3.70625</v>
@@ -45412,7 +45412,7 @@
         <v>10.1625</v>
       </c>
       <c r="M75" t="n">
-        <v>9.719999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="N75" t="n">
         <v>7.78</v>
@@ -45447,7 +45447,7 @@
         <v>4.59125</v>
       </c>
       <c r="J76" t="n">
-        <v>6.592499999999999</v>
+        <v>6.5925</v>
       </c>
       <c r="K76" t="n">
         <v>8.733750000000001</v>
@@ -45476,7 +45476,7 @@
         <v>12.70625</v>
       </c>
       <c r="E77" t="n">
-        <v>8.720000000000001</v>
+        <v>8.719999999999999</v>
       </c>
       <c r="F77" t="n">
         <v>5.4625</v>
@@ -45488,13 +45488,13 @@
         <v>4.99125</v>
       </c>
       <c r="I77" t="n">
-        <v>6.063750000000001</v>
+        <v>6.06375</v>
       </c>
       <c r="J77" t="n">
         <v>6.25</v>
       </c>
       <c r="K77" t="n">
-        <v>7.43375</v>
+        <v>7.433750000000001</v>
       </c>
       <c r="L77" t="n">
         <v>10.59125</v>
@@ -45535,10 +45535,10 @@
         <v>4.22</v>
       </c>
       <c r="J78" t="n">
-        <v>6.749999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="K78" t="n">
-        <v>6.920000000000001</v>
+        <v>6.92</v>
       </c>
       <c r="L78" t="n">
         <v>9.43375</v>
@@ -45567,7 +45567,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>6.291250000000001</v>
+        <v>6.29125</v>
       </c>
       <c r="G79" t="n">
         <v>4.22</v>
@@ -45585,7 +45585,7 @@
         <v>8.92</v>
       </c>
       <c r="L79" t="n">
-        <v>9.606250000000001</v>
+        <v>9.606249999999999</v>
       </c>
       <c r="M79" t="n">
         <v>11.59125</v>
@@ -45608,28 +45608,28 @@
         <v>10.80625</v>
       </c>
       <c r="E80" t="n">
-        <v>8.777499999999998</v>
+        <v>8.7775</v>
       </c>
       <c r="F80" t="n">
-        <v>7.391250000000001</v>
+        <v>7.391249999999999</v>
       </c>
       <c r="G80" t="n">
         <v>4.97</v>
       </c>
       <c r="H80" t="n">
-        <v>3.98375</v>
+        <v>3.983750000000001</v>
       </c>
       <c r="I80" t="n">
         <v>5.79875</v>
       </c>
       <c r="J80" t="n">
-        <v>6.642500000000001</v>
+        <v>6.6425</v>
       </c>
       <c r="K80" t="n">
         <v>8.18375</v>
       </c>
       <c r="L80" t="n">
-        <v>9.956250000000001</v>
+        <v>9.956249999999999</v>
       </c>
       <c r="M80" t="n">
         <v>11.45625</v>
@@ -45655,22 +45655,22 @@
         <v>7.412500000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>5.198750000000001</v>
+        <v>5.19875</v>
       </c>
       <c r="G81" t="n">
         <v>4.84125</v>
       </c>
       <c r="H81" t="n">
-        <v>4.756250000000001</v>
+        <v>4.75625</v>
       </c>
       <c r="I81" t="n">
-        <v>5.083749999999999</v>
+        <v>5.08375</v>
       </c>
       <c r="J81" t="n">
         <v>7.8125</v>
       </c>
       <c r="K81" t="n">
-        <v>9.04125</v>
+        <v>9.041250000000002</v>
       </c>
       <c r="L81" t="n">
         <v>10.4275</v>
@@ -45708,7 +45708,7 @@
         <v>2.75625</v>
       </c>
       <c r="I82" t="n">
-        <v>5.38375</v>
+        <v>5.383749999999999</v>
       </c>
       <c r="J82" t="n">
         <v>7.2125</v>
@@ -45740,7 +45740,7 @@
         <v>12.07</v>
       </c>
       <c r="E83" t="n">
-        <v>9.498750000000001</v>
+        <v>9.498749999999999</v>
       </c>
       <c r="F83" t="n">
         <v>7.05625</v>
@@ -45752,7 +45752,7 @@
         <v>4.2125</v>
       </c>
       <c r="I83" t="n">
-        <v>5.212499999999999</v>
+        <v>5.2125</v>
       </c>
       <c r="J83" t="n">
         <v>5.58375</v>
@@ -45761,7 +45761,7 @@
         <v>8.01125</v>
       </c>
       <c r="L83" t="n">
-        <v>9.756250000000001</v>
+        <v>9.75625</v>
       </c>
       <c r="M83" t="n">
         <v>11.78375</v>
@@ -45799,10 +45799,10 @@
         <v>5.6325</v>
       </c>
       <c r="J84" t="n">
-        <v>7.161249999999999</v>
+        <v>7.161250000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>7.617500000000001</v>
+        <v>7.6175</v>
       </c>
       <c r="L84" t="n">
         <v>8.102499999999999</v>
@@ -45828,10 +45828,10 @@
         <v>9.1175</v>
       </c>
       <c r="E85" t="n">
-        <v>6.646249999999999</v>
+        <v>6.64625</v>
       </c>
       <c r="F85" t="n">
-        <v>4.759999999999999</v>
+        <v>4.76</v>
       </c>
       <c r="G85" t="n">
         <v>3.18875</v>
@@ -45840,10 +45840,10 @@
         <v>4.24625</v>
       </c>
       <c r="I85" t="n">
-        <v>4.088749999999999</v>
+        <v>4.08875</v>
       </c>
       <c r="J85" t="n">
-        <v>5.031250000000001</v>
+        <v>5.03125</v>
       </c>
       <c r="K85" t="n">
         <v>7.38875</v>
@@ -45872,13 +45872,13 @@
         <v>9.9175</v>
       </c>
       <c r="E86" t="n">
-        <v>8.046249999999999</v>
+        <v>8.046250000000001</v>
       </c>
       <c r="F86" t="n">
         <v>6.57375</v>
       </c>
       <c r="G86" t="n">
-        <v>5.788749999999999</v>
+        <v>5.78875</v>
       </c>
       <c r="H86" t="n">
         <v>3.58875</v>
@@ -45887,13 +45887,13 @@
         <v>3.5175</v>
       </c>
       <c r="J86" t="n">
-        <v>5.317500000000001</v>
+        <v>5.3175</v>
       </c>
       <c r="K86" t="n">
         <v>8.14625</v>
       </c>
       <c r="L86" t="n">
-        <v>8.088749999999999</v>
+        <v>8.088750000000001</v>
       </c>
       <c r="M86" t="n">
         <v>10.67375</v>
@@ -45916,10 +45916,10 @@
         <v>10.34625</v>
       </c>
       <c r="E87" t="n">
-        <v>8.659999999999998</v>
+        <v>8.66</v>
       </c>
       <c r="F87" t="n">
-        <v>6.7175</v>
+        <v>6.717499999999999</v>
       </c>
       <c r="G87" t="n">
         <v>4.14625</v>
@@ -45978,7 +45978,7 @@
         <v>6.4025</v>
       </c>
       <c r="K88" t="n">
-        <v>7.96</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="L88" t="n">
         <v>8.717500000000001</v>
@@ -46022,7 +46022,7 @@
         <v>7.4175</v>
       </c>
       <c r="K89" t="n">
-        <v>8.446250000000001</v>
+        <v>8.446249999999999</v>
       </c>
       <c r="L89" t="n">
         <v>8.446249999999999</v>
@@ -46048,10 +46048,10 @@
         <v>10.71</v>
       </c>
       <c r="E90" t="n">
-        <v>8.067499999999999</v>
+        <v>8.067500000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>7.467499999999999</v>
+        <v>7.467500000000001</v>
       </c>
       <c r="G90" t="n">
         <v>3.8625</v>
@@ -46101,7 +46101,7 @@
         <v>4.8825</v>
       </c>
       <c r="H91" t="n">
-        <v>5.611250000000001</v>
+        <v>5.61125</v>
       </c>
       <c r="I91" t="n">
         <v>4.41875</v>
@@ -46113,7 +46113,7 @@
         <v>9.27375</v>
       </c>
       <c r="L91" t="n">
-        <v>9.532500000000001</v>
+        <v>9.532499999999999</v>
       </c>
       <c r="M91" t="n">
         <v>11.87625</v>
@@ -46201,7 +46201,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L93" t="n">
-        <v>7.642499999999999</v>
+        <v>7.6425</v>
       </c>
       <c r="M93" t="n">
         <v>12.48625</v>
@@ -46274,7 +46274,7 @@
         <v>7.08625</v>
       </c>
       <c r="G95" t="n">
-        <v>6.071250000000001</v>
+        <v>6.07125</v>
       </c>
       <c r="H95" t="n">
         <v>4</v>
@@ -46286,7 +46286,7 @@
         <v>6.73</v>
       </c>
       <c r="K95" t="n">
-        <v>6.399999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="L95" t="n">
         <v>8.813750000000001</v>
@@ -46324,16 +46324,16 @@
         <v>2.47125</v>
       </c>
       <c r="I96" t="n">
-        <v>4.772500000000001</v>
+        <v>4.7725</v>
       </c>
       <c r="J96" t="n">
         <v>6.5</v>
       </c>
       <c r="K96" t="n">
-        <v>7.242500000000001</v>
+        <v>7.2425</v>
       </c>
       <c r="L96" t="n">
-        <v>8.671249999999999</v>
+        <v>8.671250000000001</v>
       </c>
       <c r="M96" t="n">
         <v>11.5425</v>
@@ -46356,13 +46356,13 @@
         <v>10.17125</v>
       </c>
       <c r="E97" t="n">
-        <v>7.900000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="F97" t="n">
-        <v>7.742500000000001</v>
+        <v>7.7425</v>
       </c>
       <c r="G97" t="n">
-        <v>5.57125</v>
+        <v>5.571250000000001</v>
       </c>
       <c r="H97" t="n">
         <v>2.6575</v>
@@ -46374,7 +46374,7 @@
         <v>5.53</v>
       </c>
       <c r="K97" t="n">
-        <v>8.157500000000001</v>
+        <v>8.157499999999999</v>
       </c>
       <c r="L97" t="n">
         <v>9.97125</v>
@@ -46418,10 +46418,10 @@
         <v>6.97625</v>
       </c>
       <c r="K98" t="n">
-        <v>7.930000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="L98" t="n">
-        <v>9.331249999999999</v>
+        <v>9.331250000000001</v>
       </c>
       <c r="M98" t="n">
         <v>13.63125</v>
@@ -46447,7 +46447,7 @@
         <v>10.63125</v>
       </c>
       <c r="F99" t="n">
-        <v>7.231250000000001</v>
+        <v>7.23125</v>
       </c>
       <c r="G99" t="n">
         <v>2.78875</v>
@@ -46456,19 +46456,19 @@
         <v>3.86</v>
       </c>
       <c r="I99" t="n">
-        <v>4.661250000000001</v>
+        <v>4.66125</v>
       </c>
       <c r="J99" t="n">
         <v>7.24625</v>
       </c>
       <c r="K99" t="n">
-        <v>7.85875</v>
+        <v>7.858749999999999</v>
       </c>
       <c r="L99" t="n">
         <v>9.473749999999999</v>
       </c>
       <c r="M99" t="n">
-        <v>9.602500000000001</v>
+        <v>9.602499999999999</v>
       </c>
       <c r="N99" t="n">
         <v>8.220000000000001</v>
@@ -46497,7 +46497,7 @@
         <v>3.64625</v>
       </c>
       <c r="H100" t="n">
-        <v>4.102499999999999</v>
+        <v>4.1025</v>
       </c>
       <c r="I100" t="n">
         <v>4.76</v>
@@ -46532,13 +46532,13 @@
         <v>12.13125</v>
       </c>
       <c r="E101" t="n">
-        <v>9.402500000000002</v>
+        <v>9.4025</v>
       </c>
       <c r="F101" t="n">
         <v>5.16</v>
       </c>
       <c r="G101" t="n">
-        <v>4.54625</v>
+        <v>4.546250000000001</v>
       </c>
       <c r="H101" t="n">
         <v>4.5175</v>
@@ -46632,7 +46632,7 @@
         <v>3.27375</v>
       </c>
       <c r="I103" t="n">
-        <v>5.97375</v>
+        <v>5.973749999999999</v>
       </c>
       <c r="J103" t="n">
         <v>6.98875</v>
@@ -46664,13 +46664,13 @@
         <v>11.08875</v>
       </c>
       <c r="E104" t="n">
-        <v>8.873749999999999</v>
+        <v>8.873750000000001</v>
       </c>
       <c r="F104" t="n">
         <v>9.07375</v>
       </c>
       <c r="G104" t="n">
-        <v>6.2025</v>
+        <v>6.202500000000001</v>
       </c>
       <c r="H104" t="n">
         <v>3.6175</v>
@@ -46685,7 +46685,7 @@
         <v>8.602499999999999</v>
       </c>
       <c r="L104" t="n">
-        <v>9.431249999999999</v>
+        <v>9.43125</v>
       </c>
       <c r="M104" t="n">
         <v>12.1025</v>
@@ -46720,7 +46720,7 @@
         <v>4.16</v>
       </c>
       <c r="I105" t="n">
-        <v>6.27375</v>
+        <v>6.273750000000001</v>
       </c>
       <c r="J105" t="n">
         <v>6.6175</v>
@@ -46764,7 +46764,7 @@
         <v>4.57375</v>
       </c>
       <c r="I106" t="n">
-        <v>6.688749999999999</v>
+        <v>6.688750000000001</v>
       </c>
       <c r="J106" t="n">
         <v>6.818750000000001</v>
@@ -46802,13 +46802,13 @@
         <v>6.84625</v>
       </c>
       <c r="G107" t="n">
-        <v>6.146249999999999</v>
+        <v>6.14625</v>
       </c>
       <c r="H107" t="n">
         <v>4.04625</v>
       </c>
       <c r="I107" t="n">
-        <v>4.373749999999999</v>
+        <v>4.37375</v>
       </c>
       <c r="J107" t="n">
         <v>6.49</v>
@@ -46843,7 +46843,7 @@
         <v>10.04625</v>
       </c>
       <c r="F108" t="n">
-        <v>6.459999999999999</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="G108" t="n">
         <v>4.5175</v>
@@ -46887,13 +46887,13 @@
         <v>9.24625</v>
       </c>
       <c r="F109" t="n">
-        <v>8.959999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G109" t="n">
         <v>5.8025</v>
       </c>
       <c r="H109" t="n">
-        <v>4.102499999999999</v>
+        <v>4.1025</v>
       </c>
       <c r="I109" t="n">
         <v>3.93125</v>
@@ -46931,16 +46931,16 @@
         <v>10.17375</v>
       </c>
       <c r="F110" t="n">
-        <v>6.259999999999999</v>
+        <v>6.26</v>
       </c>
       <c r="G110" t="n">
-        <v>4.54625</v>
+        <v>4.546250000000001</v>
       </c>
       <c r="H110" t="n">
         <v>3.9175</v>
       </c>
       <c r="I110" t="n">
-        <v>6.161250000000001</v>
+        <v>6.16125</v>
       </c>
       <c r="J110" t="n">
         <v>7.518750000000001</v>
@@ -46987,10 +46987,10 @@
         <v>5.6175</v>
       </c>
       <c r="J111" t="n">
-        <v>6.290000000000001</v>
+        <v>6.29</v>
       </c>
       <c r="K111" t="n">
-        <v>8.187500000000002</v>
+        <v>8.1875</v>
       </c>
       <c r="L111" t="n">
         <v>10.06</v>
@@ -47025,13 +47025,13 @@
         <v>4.37375</v>
       </c>
       <c r="H112" t="n">
-        <v>5.6175</v>
+        <v>5.617500000000001</v>
       </c>
       <c r="I112" t="n">
         <v>4.67625</v>
       </c>
       <c r="J112" t="n">
-        <v>6.260000000000001</v>
+        <v>6.26</v>
       </c>
       <c r="K112" t="n">
         <v>7.746250000000001</v>
@@ -47066,7 +47066,7 @@
         <v>6.9025</v>
       </c>
       <c r="G113" t="n">
-        <v>6.088749999999999</v>
+        <v>6.08875</v>
       </c>
       <c r="H113" t="n">
         <v>4.47375</v>
@@ -47113,7 +47113,7 @@
         <v>6.9175</v>
       </c>
       <c r="H114" t="n">
-        <v>4.631250000000001</v>
+        <v>4.63125</v>
       </c>
       <c r="I114" t="n">
         <v>5.9025</v>
@@ -47122,7 +47122,7 @@
         <v>6.47375</v>
       </c>
       <c r="K114" t="n">
-        <v>9.5025</v>
+        <v>9.502500000000001</v>
       </c>
       <c r="L114" t="n">
         <v>11.47375</v>
@@ -47148,7 +47148,7 @@
         <v>12.66</v>
       </c>
       <c r="E115" t="n">
-        <v>9.88875</v>
+        <v>9.888750000000002</v>
       </c>
       <c r="F115" t="n">
         <v>8.16</v>
@@ -47160,13 +47160,13 @@
         <v>5.44625</v>
       </c>
       <c r="I115" t="n">
-        <v>6.402499999999999</v>
+        <v>6.4025</v>
       </c>
       <c r="J115" t="n">
         <v>6.9025</v>
       </c>
       <c r="K115" t="n">
-        <v>7.931249999999999</v>
+        <v>7.93125</v>
       </c>
       <c r="L115" t="n">
         <v>11.44625</v>
@@ -47195,7 +47195,7 @@
         <v>10.5025</v>
       </c>
       <c r="F116" t="n">
-        <v>9.446250000000001</v>
+        <v>9.446249999999999</v>
       </c>
       <c r="G116" t="n">
         <v>6.0025</v>
@@ -47207,13 +47207,13 @@
         <v>3.94625</v>
       </c>
       <c r="J116" t="n">
-        <v>7.788749999999999</v>
+        <v>7.78875</v>
       </c>
       <c r="K116" t="n">
-        <v>8.002500000000001</v>
+        <v>8.0025</v>
       </c>
       <c r="L116" t="n">
-        <v>9.946250000000001</v>
+        <v>9.946249999999999</v>
       </c>
       <c r="M116" t="n">
         <v>13.03125</v>
@@ -47242,7 +47242,7 @@
         <v>5.27375</v>
       </c>
       <c r="G117" t="n">
-        <v>5.97375</v>
+        <v>5.973750000000001</v>
       </c>
       <c r="H117" t="n">
         <v>4.97375</v>

--- a/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/TMin_unrounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,55 +5576,81 @@
       <c r="K117" t="n">
         <v>11.7</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="M117" t="n">
+        <v>16.2</v>
+      </c>
       <c r="N117" t="n">
-        <v>11.94</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>16.11</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>16.57</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>14.92</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.85</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>10.75</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.65</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.33</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.75</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>11.27</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>12.79</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>14.99</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.06</v>
       </c>
     </row>
@@ -5639,7 +5665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10726,55 +10752,81 @@
       <c r="K117" t="n">
         <v>7.3</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.399999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>11.9</v>
+      </c>
       <c r="N117" t="n">
-        <v>6.42</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>11.28</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>11.16</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>7.12</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>5.01</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>3.08</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>2.75</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>3.51</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>4.92</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>6.5</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>7.88</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.28</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>6.9</v>
       </c>
     </row>
@@ -10789,7 +10841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15958,55 +16010,81 @@
       <c r="K117" t="n">
         <v>10.02</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13.82</v>
+      </c>
       <c r="N117" t="n">
-        <v>10.17</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>13.58</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>13.84</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>12.61</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>10.92</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>7.27</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>6.58</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>6.92</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>9.1</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>10.27</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>12.34</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>10.07</v>
       </c>
     </row>
@@ -16021,7 +16099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21190,55 +21268,81 @@
       <c r="K117" t="n">
         <v>9.1</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>14.2</v>
+      </c>
       <c r="N117" t="n">
-        <v>8.199999999999999</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>13.74</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>13.73</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>11.73</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>9.01</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.33</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>3.54</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>2.56</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.04</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>6.13</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>8.25</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>9.91</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>12.47</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>8.449999999999999</v>
       </c>
     </row>
@@ -21253,7 +21357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26328,55 +26432,75 @@
       <c r="K117" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.56</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>12</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>12.14</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>10.57</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>8.56</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.51</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>4.2</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.13</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.22</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>5.9</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>7.53</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>8.81</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.88</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>7.87</v>
       </c>
     </row>
@@ -26391,7 +26515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31560,55 +31684,81 @@
       <c r="K117" t="n">
         <v>7.2</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>11.7</v>
+      </c>
       <c r="N117" t="n">
-        <v>6.46</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>11.74</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>11.71</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>9.92</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>7.31</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>4.82</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>2.15</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>1.59</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>2.89</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>4.69</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>6.48</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>8.09</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.46</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>6.82</v>
       </c>
     </row>
@@ -31623,7 +31773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36792,55 +36942,81 @@
       <c r="K117" t="n">
         <v>8</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>12.1</v>
+      </c>
       <c r="N117" t="n">
-        <v>7.69</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>11.56</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>11.47</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>10.2</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>8.19</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.05</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>3.85</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.02</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.21</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>5.71</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>7</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>8.51</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.45</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>7.52</v>
       </c>
     </row>
@@ -36855,7 +37031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42024,55 +42200,81 @@
       <c r="K117" t="n">
         <v>8.789999999999999</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13.32</v>
+      </c>
       <c r="N117" t="n">
-        <v>8.35</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>12.86</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>12.95</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>11.36</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.98</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>4.69</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.9</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.88</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>6.45</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>8.02</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>11.69</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
@@ -42087,7 +42289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47256,55 +47458,81 @@
       <c r="K117" t="n">
         <v>8.78875</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>10.63125</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13.32</v>
+      </c>
       <c r="N117" t="n">
-        <v>8.35</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.33714285714286</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>12.86</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>12.95</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>11.36</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.98</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>4.69</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.9</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.88</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>6.45</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>8.02</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>11.69</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
